--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Confidential\MyDinnerDive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5A5C8-1AD0-46D8-86C2-53556E287CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE8A94-EB66-43BF-88A3-6FA6DE2FF4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19365" yWindow="4380" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
+    <workbookView xWindow="-29790" yWindow="3180" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>user_id</t>
   </si>
@@ -102,6 +102,15 @@
   <si>
     <t>修改帳號資料時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-20 00:47:56</t>
+  </si>
+  <si>
+    <t>2025-07-20 00:48:31</t>
+  </si>
+  <si>
+    <t>2025-07-20 00:48:35</t>
   </si>
 </sst>
 </file>
@@ -203,9 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,6 +219,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +561,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -563,42 +572,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -615,11 +624,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>45858.03328703704</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45858.03328703704</v>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -635,11 +644,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
-        <v>45858.033692129633</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45858.033692129633</v>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -655,11 +664,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
-        <v>45858.033738425926</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45858.033738425926</v>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
